--- a/项目管理/进度计划/Demo-里程碑5/里程碑5-周版本.xlsx
+++ b/项目管理/进度计划/Demo-里程碑5/里程碑5-周版本.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26207"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MichaelTong/Desktop/GameGiraffe SVN/项目管理/进度计划/Demo-里程碑5/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33380" windowHeight="19340" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33380" windowHeight="19340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="20150916" sheetId="10" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="425">
   <si>
     <t>下次双周会内容</t>
     <rPh sb="0" eb="1">
@@ -2348,6 +2353,15 @@
   <si>
     <t>必须</t>
     <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交QA</t>
+  </si>
+  <si>
+    <t>对局数值模拟</t>
+  </si>
+  <si>
+    <t>辛炜</t>
   </si>
 </sst>
 </file>
@@ -2540,7 +2554,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4010,6 +4024,419 @@
     </xf>
   </cellXfs>
   <cellStyles count="431">
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 2 2 2" xfId="1"/>
     <cellStyle name="常规 10 2 2 2 2" xfId="14"/>
     <cellStyle name="常规 10 2 2 2 2 2" xfId="267"/>
@@ -4028,421 +4455,28 @@
     <cellStyle name="常规 8 2" xfId="17"/>
     <cellStyle name="常规 8 2 2" xfId="270"/>
     <cellStyle name="常规_2-4周版本输出" xfId="7"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="227" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="229" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="231" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="233" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="235" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="237" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="239" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="241" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="243" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="245" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="247" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="249" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="251" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="253" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="255" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="257" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="259" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="261" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="263" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="265" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="271" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="273" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="275" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="277" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="279" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="281" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="283" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="285" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="287" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="289" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="291" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="293" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="295" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="297" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="299" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="301" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="303" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="305" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="307" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="309" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="311" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="313" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="315" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="317" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="319" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="321" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="323" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="325" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="327" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="329" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="331" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="333" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="335" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="337" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="339" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="341" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="343" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="345" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="347" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="349" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="351" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="353" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="355" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="357" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="359" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="361" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="363" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="365" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="367" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="369" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="371" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="373" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="375" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="377" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="379" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="381" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="383" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="385" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="387" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="389" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="391" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="393" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="395" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="397" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="399" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="401" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="403" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="405" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="407" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="409" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="411" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="413" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="415" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="417" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="419" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="421" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="423" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="425" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="427" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="429" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="228" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="230" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="232" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="234" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="236" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="238" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="240" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="242" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="244" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="246" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="248" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="250" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="252" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="254" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="256" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="258" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="260" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="262" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="264" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="266" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="272" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="274" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="276" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="278" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="280" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="282" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="284" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="286" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="288" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="290" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="292" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="294" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="296" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="298" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="300" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="302" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="304" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="306" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="308" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="310" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="312" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="314" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="316" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="318" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="320" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="322" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="324" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="326" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="328" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="330" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="332" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="334" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="336" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="338" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="340" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="342" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="344" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="346" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="348" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="350" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="352" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="354" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="356" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="358" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="360" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="362" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="364" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="366" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="368" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="370" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="372" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="374" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="376" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="378" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="380" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="382" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="384" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="386" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="388" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="390" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="392" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="394" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="396" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="398" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="400" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="402" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="404" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="406" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="408" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="410" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="412" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="414" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="416" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="418" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="420" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="422" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="424" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="426" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="428" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="430" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color indexed="60"/>
@@ -5012,96 +5046,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -5121,7 +5065,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="附录"/>
@@ -5475,7 +5419,7 @@
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="9" customWidth="1"/>
@@ -5487,7 +5431,7 @@
     <col min="17" max="16384" width="10.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
@@ -5532,7 +5476,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -5552,7 +5496,7 @@
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -5587,7 +5531,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="15"/>
       <c r="C4" s="9" t="s">
@@ -5621,7 +5565,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="15"/>
       <c r="D5" s="14"/>
@@ -5636,7 +5580,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="15" t="s">
         <v>116</v>
@@ -5669,7 +5613,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="15"/>
       <c r="D7" s="14"/>
@@ -5686,7 +5630,7 @@
       </c>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="15" t="s">
         <v>19</v>
@@ -5724,7 +5668,7 @@
       </c>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="15"/>
       <c r="D9" s="14"/>
@@ -5740,7 +5684,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="15" t="s">
         <v>84</v>
@@ -5780,7 +5724,7 @@
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15"/>
       <c r="D11" s="14"/>
@@ -5796,7 +5740,7 @@
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
         <v>21</v>
@@ -5831,7 +5775,7 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="15"/>
       <c r="C13" s="9" t="s">
@@ -5850,7 +5794,7 @@
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="15"/>
       <c r="C14" s="9" t="s">
@@ -5881,7 +5825,7 @@
       <c r="O14" s="8"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="15"/>
       <c r="C15" s="9" t="s">
@@ -5914,7 +5858,7 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="15"/>
       <c r="C16" s="9" t="s">
@@ -5947,7 +5891,7 @@
       </c>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="15"/>
       <c r="C17" s="9" t="s">
@@ -5978,7 +5922,7 @@
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="15"/>
       <c r="C18" s="9" t="s">
@@ -6009,7 +5953,7 @@
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="15"/>
       <c r="C19" s="9" t="s">
@@ -6040,7 +5984,7 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="15"/>
       <c r="C20" s="9" t="s">
@@ -6071,7 +6015,7 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="15"/>
       <c r="C21" s="9" t="s">
@@ -6099,7 +6043,7 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="15"/>
       <c r="C22" s="9" t="s">
@@ -6130,7 +6074,7 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="15"/>
       <c r="C23" s="10" t="s">
@@ -6163,7 +6107,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="15"/>
       <c r="C24" s="10" t="s">
@@ -6194,7 +6138,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="32">
+    <row r="25" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="15"/>
       <c r="C25" s="9" t="s">
@@ -6223,7 +6167,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="15"/>
       <c r="C26" s="9" t="s">
@@ -6247,7 +6191,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="15"/>
       <c r="C27" s="9" t="s">
@@ -6274,7 +6218,7 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="C28" s="10"/>
       <c r="D28" s="14"/>
@@ -6291,7 +6235,7 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>23</v>
       </c>
@@ -6308,7 +6252,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>64</v>
       </c>
@@ -6341,7 +6285,7 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="11"/>
       <c r="C31" s="9" t="s">
@@ -6373,7 +6317,7 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="C32" s="17" t="s">
         <v>16</v>
@@ -6408,7 +6352,7 @@
       </c>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:16">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B33" s="11"/>
       <c r="C33" s="17" t="s">
         <v>16</v>
@@ -6443,7 +6387,7 @@
       </c>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="1:16">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="17" t="s">
         <v>16</v>
@@ -6474,7 +6418,7 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="17" t="s">
         <v>16</v>
@@ -6507,7 +6451,7 @@
       </c>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="17" t="s">
         <v>161</v>
@@ -6529,7 +6473,7 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:16">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="16"/>
       <c r="C37" s="9" t="s">
         <v>161</v>
@@ -6551,7 +6495,7 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="C38" s="9" t="s">
         <v>161</v>
@@ -6579,7 +6523,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:16">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
@@ -6591,7 +6535,7 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:16">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
         <v>24</v>
       </c>
@@ -6625,7 +6569,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="C41" s="9" t="s">
         <v>161</v>
@@ -6655,7 +6599,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
       <c r="C42" s="17" t="s">
         <v>161</v>
@@ -6690,7 +6634,7 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
       <c r="C43" s="17" t="s">
         <v>16</v>
@@ -6722,7 +6666,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C44" s="17" t="s">
         <v>16</v>
       </c>
@@ -6756,7 +6700,7 @@
       </c>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:16">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="C45" s="9" t="s">
         <v>16</v>
@@ -6791,7 +6735,7 @@
       </c>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:16">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="C46" s="9" t="s">
         <v>161</v>
@@ -6817,7 +6761,7 @@
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:16">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="16"/>
       <c r="B47" s="6"/>
       <c r="C47" s="17"/>
@@ -6833,7 +6777,7 @@
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="1:16">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="18" t="s">
         <v>25</v>
@@ -6862,7 +6806,7 @@
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="C49" s="17" t="s">
         <v>16</v>
@@ -6892,7 +6836,7 @@
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="C50" s="17" t="s">
         <v>16</v>
@@ -6925,7 +6869,7 @@
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
     </row>
-    <row r="51" spans="1:16">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="C51" s="17" t="s">
         <v>20</v>
@@ -6948,7 +6892,7 @@
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
     </row>
-    <row r="52" spans="1:16">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="C52" s="17" t="s">
         <v>16</v>
@@ -6979,7 +6923,7 @@
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>26</v>
       </c>
@@ -6996,7 +6940,7 @@
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>53</v>
       </c>
@@ -7031,7 +6975,7 @@
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="16"/>
       <c r="C55" s="10" t="s">
         <v>16</v>
@@ -7064,7 +7008,7 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="C56" s="10" t="s">
         <v>16</v>
@@ -7097,7 +7041,7 @@
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="16"/>
       <c r="C57" s="10"/>
       <c r="D57" s="14"/>
@@ -7113,7 +7057,7 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="9" t="s">
         <v>51</v>
@@ -7148,7 +7092,7 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="C59" s="10" t="s">
         <v>16</v>
@@ -7180,7 +7124,7 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="1:16">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="C60" s="10" t="s">
         <v>16</v>
@@ -7212,7 +7156,7 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="C61" s="10" t="s">
         <v>16</v>
@@ -7245,7 +7189,7 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="24"/>
       <c r="C62" s="10" t="s">
         <v>16</v>
@@ -7277,7 +7221,7 @@
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="C63" s="10" t="s">
         <v>16</v>
@@ -7309,7 +7253,7 @@
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="D64" s="14"/>
       <c r="E64" s="19"/>
@@ -7323,7 +7267,7 @@
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="B65" s="9" t="s">
         <v>21</v>
@@ -7356,7 +7300,7 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="C66" s="10" t="s">
         <v>16</v>
@@ -7380,7 +7324,7 @@
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="C67" s="10" t="s">
         <v>16</v>
@@ -7412,7 +7356,7 @@
       </c>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="16"/>
       <c r="C68" s="10" t="s">
         <v>16</v>
@@ -7444,7 +7388,7 @@
       </c>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C69" s="10"/>
       <c r="D69" s="14"/>
       <c r="E69" s="19"/>
@@ -7459,7 +7403,7 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>28</v>
       </c>
@@ -7477,7 +7421,7 @@
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="20" t="s">
         <v>76</v>
@@ -7515,7 +7459,7 @@
       </c>
       <c r="P71" s="8"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="16"/>
       <c r="C72" s="9" t="s">
         <v>16</v>
@@ -7550,7 +7494,7 @@
       </c>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
       <c r="D73" s="14"/>
       <c r="G73" s="8"/>
@@ -7563,7 +7507,7 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="16"/>
       <c r="B74" s="20" t="s">
         <v>77</v>
@@ -7592,7 +7536,7 @@
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
       <c r="C75" s="9" t="s">
         <v>16</v>
@@ -7623,7 +7567,7 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="16"/>
       <c r="C76" s="9" t="s">
         <v>20</v>
@@ -7652,7 +7596,7 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="D77" s="14"/>
       <c r="G77" s="8"/>
@@ -7666,7 +7610,7 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="20" t="s">
         <v>21</v>
@@ -7691,7 +7635,7 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C79" s="9" t="s">
         <v>222</v>
       </c>
@@ -7717,7 +7661,7 @@
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="9" t="s">
         <v>202</v>
       </c>
@@ -7747,7 +7691,7 @@
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
       <c r="I81" s="14"/>
@@ -7759,7 +7703,7 @@
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
       <c r="I82" s="14"/>
@@ -7771,7 +7715,7 @@
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>30</v>
       </c>
@@ -7780,7 +7724,7 @@
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
     </row>
-    <row r="84" spans="1:16" ht="32">
+    <row r="84" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="8" t="s">
         <v>31</v>
@@ -7799,7 +7743,7 @@
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
     </row>
-    <row r="85" spans="1:16" ht="32">
+    <row r="85" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>33</v>
       </c>
@@ -7817,7 +7761,7 @@
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
     </row>
-    <row r="86" spans="1:16" ht="32">
+    <row r="86" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="8" t="s">
         <v>34</v>
@@ -7836,7 +7780,7 @@
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B87" s="9" t="s">
         <v>39</v>
       </c>
@@ -7851,7 +7795,7 @@
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B88" s="8" t="s">
         <v>35</v>
       </c>
@@ -7866,7 +7810,7 @@
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
         <v>37</v>
       </c>
@@ -7881,7 +7825,7 @@
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B90" s="20" t="s">
         <v>38</v>
       </c>
@@ -7896,7 +7840,7 @@
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G91" s="8"/>
       <c r="H91" s="8"/>
       <c r="I91" s="14"/>
@@ -7908,7 +7852,7 @@
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>36</v>
       </c>
@@ -7929,7 +7873,7 @@
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
     </row>
-    <row r="93" spans="1:16">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D93" s="9" t="s">
         <v>127</v>
       </c>
@@ -7947,7 +7891,7 @@
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
     </row>
-    <row r="94" spans="1:16">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G94" s="8"/>
       <c r="H94" s="8"/>
       <c r="I94" s="14"/>
@@ -7959,7 +7903,7 @@
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
     </row>
-    <row r="95" spans="1:16">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
         <v>0</v>
       </c>
@@ -7974,7 +7918,7 @@
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
         <v>1</v>
       </c>
@@ -7995,7 +7939,7 @@
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
     </row>
-    <row r="97" spans="1:16">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G97" s="8"/>
       <c r="H97" s="8"/>
       <c r="I97" s="14"/>
@@ -8007,7 +7951,7 @@
       <c r="O97" s="11"/>
       <c r="P97" s="11"/>
     </row>
-    <row r="98" spans="1:16">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>40</v>
       </c>
@@ -8025,7 +7969,7 @@
       <c r="O98" s="11"/>
       <c r="P98" s="11"/>
     </row>
-    <row r="99" spans="1:16">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D99" s="9" t="s">
         <v>214</v>
       </c>
@@ -8041,7 +7985,7 @@
       <c r="O99" s="11"/>
       <c r="P99" s="11"/>
     </row>
-    <row r="100" spans="1:16">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D100" s="9" t="s">
         <v>217</v>
       </c>
@@ -8051,7 +7995,7 @@
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
     </row>
-    <row r="101" spans="1:16">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D101" s="9" t="s">
         <v>218</v>
       </c>
@@ -8061,7 +8005,7 @@
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
     </row>
-    <row r="102" spans="1:16">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D102" s="9" t="s">
         <v>220</v>
       </c>
@@ -8071,7 +8015,7 @@
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
     </row>
-    <row r="103" spans="1:16">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D103" s="9" t="s">
         <v>224</v>
       </c>
@@ -8081,19 +8025,19 @@
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
     </row>
-    <row r="104" spans="1:16">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:16">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="22" t="s">
         <v>42</v>
       </c>
@@ -8121,7 +8065,7 @@
       <c r="J106" s="39"/>
       <c r="P106" s="11"/>
     </row>
-    <row r="107" spans="1:16">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B107" s="22"/>
       <c r="C107" s="22"/>
       <c r="D107" s="29" t="s">
@@ -8139,7 +8083,7 @@
       <c r="J107" s="39"/>
       <c r="P107" s="11"/>
     </row>
-    <row r="108" spans="1:16">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B108" s="22"/>
       <c r="C108" s="22"/>
       <c r="D108" s="22" t="s">
@@ -8157,7 +8101,7 @@
       <c r="J108" s="39"/>
       <c r="P108" s="11"/>
     </row>
-    <row r="109" spans="1:16">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B109" s="22"/>
       <c r="C109" s="22"/>
       <c r="D109" s="22" t="s">
@@ -8177,7 +8121,7 @@
       <c r="J109" s="39"/>
       <c r="P109" s="11"/>
     </row>
-    <row r="110" spans="1:16">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -8201,7 +8145,7 @@
       <c r="O110" s="11"/>
       <c r="P110" s="11"/>
     </row>
-    <row r="111" spans="1:16">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="22"/>
       <c r="C111" s="22"/>
@@ -8227,7 +8171,7 @@
       <c r="O111" s="11"/>
       <c r="P111" s="11"/>
     </row>
-    <row r="112" spans="1:16">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="22"/>
       <c r="C112" s="22"/>
@@ -8253,7 +8197,7 @@
       <c r="O112" s="11"/>
       <c r="P112" s="11"/>
     </row>
-    <row r="113" spans="1:16">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
@@ -8281,7 +8225,7 @@
       <c r="O113" s="11"/>
       <c r="P113" s="11"/>
     </row>
-    <row r="114" spans="1:16">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
@@ -8301,7 +8245,7 @@
       <c r="O114" s="11"/>
       <c r="P114" s="11"/>
     </row>
-    <row r="115" spans="1:16">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
@@ -8319,7 +8263,7 @@
       <c r="O115" s="11"/>
       <c r="P115" s="11"/>
     </row>
-    <row r="116" spans="1:16">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
@@ -8337,7 +8281,7 @@
       <c r="O116" s="11"/>
       <c r="P116" s="11"/>
     </row>
-    <row r="117" spans="1:16">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
@@ -8355,7 +8299,7 @@
       <c r="O117" s="11"/>
       <c r="P117" s="11"/>
     </row>
-    <row r="119" spans="1:16">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -8372,7 +8316,7 @@
       <c r="O119" s="11"/>
       <c r="P119" s="11"/>
     </row>
-    <row r="120" spans="1:16">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -8389,7 +8333,7 @@
       <c r="O120" s="11"/>
       <c r="P120" s="11"/>
     </row>
-    <row r="134" spans="1:16">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -8406,7 +8350,7 @@
       <c r="O134" s="11"/>
       <c r="P134" s="11"/>
     </row>
-    <row r="135" spans="1:16">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -8423,7 +8367,7 @@
       <c r="O135" s="11"/>
       <c r="P135" s="11"/>
     </row>
-    <row r="136" spans="1:16">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -8440,7 +8384,7 @@
       <c r="O136" s="11"/>
       <c r="P136" s="11"/>
     </row>
-    <row r="137" spans="1:16">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -8457,7 +8401,7 @@
       <c r="O137" s="11"/>
       <c r="P137" s="11"/>
     </row>
-    <row r="138" spans="1:16">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -8474,7 +8418,7 @@
       <c r="O138" s="11"/>
       <c r="P138" s="11"/>
     </row>
-    <row r="139" spans="1:16">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -8491,7 +8435,7 @@
       <c r="O139" s="11"/>
       <c r="P139" s="11"/>
     </row>
-    <row r="140" spans="1:16">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -8508,7 +8452,7 @@
       <c r="O140" s="11"/>
       <c r="P140" s="11"/>
     </row>
-    <row r="141" spans="1:16">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -8525,7 +8469,7 @@
       <c r="O141" s="11"/>
       <c r="P141" s="11"/>
     </row>
-    <row r="142" spans="1:16">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -8542,7 +8486,7 @@
       <c r="O142" s="11"/>
       <c r="P142" s="11"/>
     </row>
-    <row r="143" spans="1:16">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -8559,7 +8503,7 @@
       <c r="O143" s="11"/>
       <c r="P143" s="11"/>
     </row>
-    <row r="144" spans="1:16">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -8576,7 +8520,7 @@
       <c r="O144" s="11"/>
       <c r="P144" s="11"/>
     </row>
-    <row r="145" spans="1:16">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -8593,7 +8537,7 @@
       <c r="O145" s="11"/>
       <c r="P145" s="11"/>
     </row>
-    <row r="146" spans="1:16">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -8610,7 +8554,7 @@
       <c r="O146" s="11"/>
       <c r="P146" s="11"/>
     </row>
-    <row r="147" spans="1:16">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -8627,7 +8571,7 @@
       <c r="O147" s="11"/>
       <c r="P147" s="11"/>
     </row>
-    <row r="148" spans="1:16">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -8644,7 +8588,7 @@
       <c r="O148" s="11"/>
       <c r="P148" s="11"/>
     </row>
-    <row r="149" spans="1:16">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -8661,7 +8605,7 @@
       <c r="O149" s="11"/>
       <c r="P149" s="11"/>
     </row>
-    <row r="150" spans="1:16">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -8678,7 +8622,7 @@
       <c r="O150" s="11"/>
       <c r="P150" s="11"/>
     </row>
-    <row r="151" spans="1:16">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -8695,7 +8639,7 @@
       <c r="O151" s="11"/>
       <c r="P151" s="11"/>
     </row>
-    <row r="152" spans="1:16">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -8712,7 +8656,7 @@
       <c r="O152" s="11"/>
       <c r="P152" s="11"/>
     </row>
-    <row r="153" spans="1:16">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -8729,7 +8673,7 @@
       <c r="O153" s="11"/>
       <c r="P153" s="11"/>
     </row>
-    <row r="154" spans="1:16">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -8746,7 +8690,7 @@
       <c r="O154" s="11"/>
       <c r="P154" s="11"/>
     </row>
-    <row r="155" spans="1:16">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -8763,7 +8707,7 @@
       <c r="O155" s="11"/>
       <c r="P155" s="11"/>
     </row>
-    <row r="156" spans="1:16">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -8780,7 +8724,7 @@
       <c r="O156" s="11"/>
       <c r="P156" s="11"/>
     </row>
-    <row r="157" spans="1:16">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -8797,7 +8741,7 @@
       <c r="O157" s="11"/>
       <c r="P157" s="11"/>
     </row>
-    <row r="158" spans="1:16">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -8814,7 +8758,7 @@
       <c r="O158" s="11"/>
       <c r="P158" s="11"/>
     </row>
-    <row r="159" spans="1:16">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -8831,7 +8775,7 @@
       <c r="O159" s="11"/>
       <c r="P159" s="11"/>
     </row>
-    <row r="160" spans="1:16">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -8848,7 +8792,7 @@
       <c r="O160" s="11"/>
       <c r="P160" s="11"/>
     </row>
-    <row r="161" spans="1:16">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -8865,7 +8809,7 @@
       <c r="O161" s="11"/>
       <c r="P161" s="11"/>
     </row>
-    <row r="162" spans="1:16">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -8882,7 +8826,7 @@
       <c r="O162" s="11"/>
       <c r="P162" s="11"/>
     </row>
-    <row r="163" spans="1:16">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -8899,7 +8843,7 @@
       <c r="O163" s="11"/>
       <c r="P163" s="11"/>
     </row>
-    <row r="164" spans="1:16">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -8916,7 +8860,7 @@
       <c r="O164" s="11"/>
       <c r="P164" s="11"/>
     </row>
-    <row r="165" spans="1:16">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -8933,7 +8877,7 @@
       <c r="O165" s="11"/>
       <c r="P165" s="11"/>
     </row>
-    <row r="166" spans="1:16">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -8950,7 +8894,7 @@
       <c r="O166" s="11"/>
       <c r="P166" s="11"/>
     </row>
-    <row r="167" spans="1:16">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -8967,7 +8911,7 @@
       <c r="O167" s="11"/>
       <c r="P167" s="11"/>
     </row>
-    <row r="168" spans="1:16">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -8984,7 +8928,7 @@
       <c r="O168" s="11"/>
       <c r="P168" s="11"/>
     </row>
-    <row r="169" spans="1:16">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -9001,7 +8945,7 @@
       <c r="O169" s="11"/>
       <c r="P169" s="11"/>
     </row>
-    <row r="170" spans="1:16">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -9018,7 +8962,7 @@
       <c r="O170" s="11"/>
       <c r="P170" s="11"/>
     </row>
-    <row r="171" spans="1:16">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -9035,7 +8979,7 @@
       <c r="O171" s="11"/>
       <c r="P171" s="11"/>
     </row>
-    <row r="172" spans="1:16">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -9052,7 +8996,7 @@
       <c r="O172" s="11"/>
       <c r="P172" s="11"/>
     </row>
-    <row r="173" spans="1:16">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -9069,7 +9013,7 @@
       <c r="O173" s="11"/>
       <c r="P173" s="11"/>
     </row>
-    <row r="174" spans="1:16">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -9086,7 +9030,7 @@
       <c r="O174" s="11"/>
       <c r="P174" s="11"/>
     </row>
-    <row r="175" spans="1:16">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -9103,7 +9047,7 @@
       <c r="O175" s="11"/>
       <c r="P175" s="11"/>
     </row>
-    <row r="176" spans="1:16">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -9120,7 +9064,7 @@
       <c r="O176" s="11"/>
       <c r="P176" s="11"/>
     </row>
-    <row r="177" spans="1:16">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -9137,7 +9081,7 @@
       <c r="O177" s="11"/>
       <c r="P177" s="11"/>
     </row>
-    <row r="178" spans="1:16">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -9154,7 +9098,7 @@
       <c r="O178" s="11"/>
       <c r="P178" s="11"/>
     </row>
-    <row r="179" spans="1:16">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -9171,7 +9115,7 @@
       <c r="O179" s="11"/>
       <c r="P179" s="11"/>
     </row>
-    <row r="180" spans="1:16">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -9188,7 +9132,7 @@
       <c r="O180" s="11"/>
       <c r="P180" s="11"/>
     </row>
-    <row r="181" spans="1:16">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -9205,7 +9149,7 @@
       <c r="O181" s="11"/>
       <c r="P181" s="11"/>
     </row>
-    <row r="182" spans="1:16">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -9222,7 +9166,7 @@
       <c r="O182" s="11"/>
       <c r="P182" s="11"/>
     </row>
-    <row r="183" spans="1:16">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -9239,7 +9183,7 @@
       <c r="O183" s="11"/>
       <c r="P183" s="11"/>
     </row>
-    <row r="184" spans="1:16">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -9256,7 +9200,7 @@
       <c r="O184" s="11"/>
       <c r="P184" s="11"/>
     </row>
-    <row r="185" spans="1:16">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -9273,7 +9217,7 @@
       <c r="O185" s="11"/>
       <c r="P185" s="11"/>
     </row>
-    <row r="186" spans="1:16">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -9290,7 +9234,7 @@
       <c r="O186" s="11"/>
       <c r="P186" s="11"/>
     </row>
-    <row r="187" spans="1:16">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -9310,92 +9254,92 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B92 A89:A97 B89:F90 A52 A53:C59 A61:A64 F58:F66 A83:F88 A74:C74 A65:C72 A73:E73 F71:G71 C95:F97 C91:C94 E91:F94 A115:XFD1048576 I112:XFD114 A112:C114 A110:C110 I110:XFD110 A107:XFD109 A111:E111 G111:XFD111 A98:F106 A33 C36:G36 A34:B36 C33:C35 F49:F51 A60:B60 C60:C63 G26:H27 A6:A7 G15:H15 I25:I27 A25:G27 G16:G20 D92:D93 G72:G73 A75:E80 A39:B39 G39:I39 A44 C44 I44 F44:G44 A9:I11 A5:G5 B5:G7 H6 A8:G8 I5:I7 D14:H14 D15:F16 A12:C16 H12 A17:G17 A18:H18 A19:G19 A20:H20 A21:G21 A22:I24 C25:H25 E31:H31 F34:F35 F32 A32:C32 A31 C31 A28:XFD29 A30:G30 A40:I43 G58:H63 G64 E67:H67 E69:XFD70 I71:XFD74 H71:H72 I30:XFD31 I36:XFD36 I35:N35 P35:XFD35 L32:XFD32 I32:J32 A45:I47 A37:XFD37 A38:I38 I49:I50 J38:XFD50 D53:XFD57 I62:I67 E68:I68 J62:XFD68 I58:XFD61 A1:XFD3 A4:I4 J4:XFD27 I12:I21 A82:E82 A81:C81 E81 A48:C51 E48:I48 I33:XFD34 G75:XFD106 I51:XFD52">
-    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="62" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95:B97">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67:D70">
-    <cfRule type="cellIs" dxfId="55" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="60" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="59" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58:E64">
-    <cfRule type="cellIs" dxfId="53" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="56" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65:E66 G65:H66">
-    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="54" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74:E74 G74:H74">
-    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="52" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:E72">
-    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D112:H114 H110">
-    <cfRule type="cellIs" dxfId="49" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D110:G110 F111">
-    <cfRule type="cellIs" dxfId="48" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50:E51">
-    <cfRule type="cellIs" dxfId="47" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H51">
-    <cfRule type="cellIs" dxfId="46" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="26" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:F82">
-    <cfRule type="cellIs" dxfId="45" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52 E52:G52">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9436,9 +9380,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -9447,11 +9388,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" zoomScalePageLayoutView="175" workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="9" customWidth="1"/>
     <col min="2" max="2" width="14.5" style="9" customWidth="1"/>
@@ -9463,7 +9404,7 @@
     <col min="16" max="16384" width="10.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
@@ -9507,7 +9448,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -9526,7 +9467,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -9553,7 +9494,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="15"/>
       <c r="C4" s="9" t="s">
@@ -9580,7 +9521,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="15"/>
       <c r="D5" s="14"/>
@@ -9596,7 +9537,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="15" t="s">
         <v>19</v>
@@ -9626,7 +9567,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="15"/>
       <c r="C7" s="9" t="s">
@@ -9653,7 +9594,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="15"/>
       <c r="C8" s="9" t="s">
@@ -9680,7 +9621,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="15"/>
       <c r="D9" s="47"/>
@@ -9696,7 +9637,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="15" t="s">
         <v>83</v>
@@ -9725,7 +9666,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15"/>
       <c r="D11" s="14"/>
@@ -9741,7 +9682,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="15" t="s">
         <v>84</v>
@@ -9772,7 +9713,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="15"/>
       <c r="D13" s="14"/>
@@ -9788,7 +9729,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="15" t="s">
         <v>21</v>
@@ -9815,7 +9756,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="11"/>
       <c r="C15" s="9" t="s">
@@ -9844,7 +9785,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="15"/>
       <c r="C16" s="9" t="s">
@@ -9873,7 +9814,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="C17" s="9" t="s">
         <v>16</v>
@@ -9898,7 +9839,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="15"/>
       <c r="C18" s="9" t="s">
@@ -9924,7 +9865,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="15"/>
       <c r="C19" s="9" t="s">
@@ -9950,7 +9891,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="15"/>
       <c r="C20" s="9" t="s">
@@ -9976,7 +9917,7 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="15"/>
       <c r="C21" s="9" t="s">
@@ -10002,7 +9943,7 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:15" ht="32">
+    <row r="22" spans="1:15" ht="34" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="15"/>
       <c r="C22" s="10" t="s">
@@ -10029,7 +9970,7 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="15"/>
       <c r="C23" s="9" t="s">
@@ -10055,7 +9996,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="C24" s="10" t="s">
         <v>16</v>
@@ -10081,7 +10022,7 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="C25" s="9" t="s">
         <v>16</v>
@@ -10107,7 +10048,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="15"/>
       <c r="C26" s="9" t="s">
@@ -10131,7 +10072,7 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="C27" s="10"/>
       <c r="D27" s="42"/>
@@ -10146,7 +10087,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>23</v>
       </c>
@@ -10162,7 +10103,7 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>64</v>
       </c>
@@ -10192,7 +10133,7 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="11"/>
       <c r="C30" s="9" t="s">
@@ -10221,7 +10162,7 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="C31" s="17" t="s">
         <v>16</v>
@@ -10249,7 +10190,7 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="17" t="s">
         <v>16</v>
@@ -10277,7 +10218,7 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
       <c r="C33" s="17" t="s">
         <v>20</v>
@@ -10301,7 +10242,7 @@
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
       <c r="C34" s="17" t="s">
         <v>161</v>
@@ -10329,7 +10270,7 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
       <c r="C35" s="17" t="s">
         <v>161</v>
@@ -10357,7 +10298,7 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
       <c r="C36" s="17" t="s">
         <v>161</v>
@@ -10385,7 +10326,7 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
       <c r="C37" s="17" t="s">
         <v>161</v>
@@ -10413,7 +10354,7 @@
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
       <c r="C38" s="17" t="s">
         <v>161</v>
@@ -10441,7 +10382,7 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
       <c r="C39" s="17" t="s">
         <v>20</v>
@@ -10469,7 +10410,7 @@
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="C40" s="9" t="s">
         <v>161</v>
@@ -10491,7 +10432,7 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -10503,7 +10444,7 @@
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>24</v>
       </c>
@@ -10533,7 +10474,7 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="1:15" ht="16" customHeight="1">
+    <row r="43" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="C43" s="17" t="s">
         <v>16</v>
@@ -10561,7 +10502,7 @@
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="C44" s="9" t="s">
         <v>161</v>
@@ -10589,7 +10530,7 @@
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
       <c r="C45" s="17" t="s">
         <v>161</v>
@@ -10617,7 +10558,7 @@
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
       <c r="C46" s="17" t="s">
         <v>16</v>
@@ -10645,7 +10586,7 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15" ht="16" customHeight="1">
+    <row r="47" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="C47" s="17" t="s">
         <v>16</v>
@@ -10673,7 +10614,7 @@
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="6"/>
       <c r="C48" s="17" t="s">
@@ -10700,7 +10641,7 @@
       <c r="N48" s="8"/>
       <c r="O48" s="8"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C49" s="17" t="s">
         <v>20</v>
       </c>
@@ -10721,7 +10662,7 @@
       <c r="N49" s="8"/>
       <c r="O49" s="8"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="16"/>
       <c r="C50" s="9" t="s">
         <v>20</v>
@@ -10746,7 +10687,7 @@
       <c r="M50" s="8"/>
       <c r="O50" s="8"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="6"/>
       <c r="C51" s="17" t="s">
@@ -10771,7 +10712,7 @@
       <c r="N51" s="8"/>
       <c r="O51" s="8"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="6"/>
       <c r="C52" s="17"/>
@@ -10787,7 +10728,7 @@
       <c r="N52" s="8"/>
       <c r="O52" s="8"/>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="18" t="s">
         <v>25</v>
@@ -10816,7 +10757,7 @@
       <c r="N53" s="8"/>
       <c r="O53" s="8"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="C54" s="9" t="s">
         <v>421</v>
@@ -10841,7 +10782,7 @@
       <c r="N54" s="8"/>
       <c r="O54" s="8"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="C55" s="43" t="s">
         <v>16</v>
@@ -10869,7 +10810,7 @@
       <c r="N55" s="8"/>
       <c r="O55" s="8"/>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="C56" s="43" t="s">
         <v>309</v>
@@ -10897,7 +10838,7 @@
       <c r="N56" s="8"/>
       <c r="O56" s="8"/>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="C57" s="43" t="s">
         <v>20</v>
@@ -10921,7 +10862,7 @@
       <c r="N57" s="8"/>
       <c r="O57" s="8"/>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>26</v>
       </c>
@@ -10937,7 +10878,7 @@
       <c r="N58" s="8"/>
       <c r="O58" s="8"/>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B59" s="9" t="s">
         <v>53</v>
       </c>
@@ -10967,7 +10908,7 @@
       <c r="N59" s="8"/>
       <c r="O59" s="8"/>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C60" s="10" t="s">
         <v>16</v>
       </c>
@@ -10992,7 +10933,7 @@
       <c r="N60" s="8"/>
       <c r="O60" s="8"/>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="16"/>
       <c r="C61" s="10" t="s">
         <v>16</v>
@@ -11018,7 +10959,7 @@
       <c r="N61" s="8"/>
       <c r="O61" s="8"/>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="16"/>
       <c r="C62" s="10"/>
       <c r="D62" s="14"/>
@@ -11034,7 +10975,7 @@
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="9" t="s">
         <v>51</v>
@@ -11065,7 +11006,7 @@
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="24"/>
       <c r="C64" s="10" t="s">
         <v>16</v>
@@ -11091,7 +11032,7 @@
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
     </row>
-    <row r="65" spans="1:16">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="24"/>
       <c r="C65" s="10" t="s">
         <v>16</v>
@@ -11117,7 +11058,7 @@
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
     </row>
-    <row r="66" spans="1:16">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="C66" s="10" t="s">
         <v>16</v>
@@ -11143,7 +11084,7 @@
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
     </row>
-    <row r="67" spans="1:16">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
       <c r="C67" s="10"/>
       <c r="D67" s="46"/>
@@ -11159,7 +11100,7 @@
       <c r="N67" s="8"/>
       <c r="O67" s="8"/>
     </row>
-    <row r="68" spans="1:16">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="24"/>
       <c r="B68" s="9" t="s">
         <v>52</v>
@@ -11188,7 +11129,7 @@
       <c r="N68" s="8"/>
       <c r="O68" s="8"/>
     </row>
-    <row r="69" spans="1:16">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="24"/>
       <c r="C69" s="10" t="s">
         <v>16</v>
@@ -11214,7 +11155,7 @@
       <c r="N69" s="8"/>
       <c r="O69" s="8"/>
     </row>
-    <row r="70" spans="1:16">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="24"/>
       <c r="C70" s="10" t="s">
         <v>16</v>
@@ -11240,7 +11181,7 @@
       <c r="N70" s="8"/>
       <c r="O70" s="8"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="24"/>
       <c r="C71" s="10" t="s">
         <v>16</v>
@@ -11266,7 +11207,7 @@
       <c r="N71" s="8"/>
       <c r="O71" s="8"/>
     </row>
-    <row r="72" spans="1:16">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="C72" s="10"/>
       <c r="D72" s="46"/>
@@ -11282,7 +11223,7 @@
       <c r="N72" s="8"/>
       <c r="O72" s="8"/>
     </row>
-    <row r="73" spans="1:16">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="24"/>
       <c r="B73" s="9" t="s">
         <v>21</v>
@@ -11309,7 +11250,7 @@
       <c r="N73" s="8"/>
       <c r="O73" s="8"/>
     </row>
-    <row r="74" spans="1:16">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="24"/>
       <c r="C74" s="10" t="s">
         <v>16</v>
@@ -11333,7 +11274,7 @@
       <c r="N74" s="8"/>
       <c r="O74" s="8"/>
     </row>
-    <row r="75" spans="1:16">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C75" s="10"/>
       <c r="D75" s="14"/>
       <c r="E75" s="19"/>
@@ -11347,7 +11288,7 @@
       <c r="N75" s="8"/>
       <c r="O75" s="8"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>28</v>
       </c>
@@ -11364,7 +11305,7 @@
       <c r="N76" s="8"/>
       <c r="O76" s="8"/>
     </row>
-    <row r="77" spans="1:16">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="16"/>
       <c r="B77" s="20" t="s">
         <v>76</v>
@@ -11391,7 +11332,7 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="1:16">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="C78" s="9" t="s">
         <v>16</v>
@@ -11415,7 +11356,7 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:16">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="16"/>
       <c r="C79" s="9" t="s">
         <v>16</v>
@@ -11442,7 +11383,7 @@
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:16">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="16"/>
       <c r="C80" s="9" t="s">
         <v>16</v>
@@ -11469,7 +11410,7 @@
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="1:16">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="16"/>
       <c r="D81" s="14"/>
       <c r="G81" s="8"/>
@@ -11482,7 +11423,7 @@
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:16">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="16"/>
       <c r="B82" s="20" t="s">
         <v>77</v>
@@ -11514,7 +11455,7 @@
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="16"/>
       <c r="D83" s="14"/>
       <c r="G83" s="8"/>
@@ -11528,7 +11469,7 @@
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
     </row>
-    <row r="84" spans="1:16">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="16"/>
       <c r="B84" s="20" t="s">
         <v>21</v>
@@ -11558,7 +11499,7 @@
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
     </row>
-    <row r="85" spans="1:16">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="16"/>
       <c r="B85" s="20"/>
       <c r="C85" s="9" t="s">
@@ -11585,7 +11526,7 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:16">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C86" s="9" t="s">
         <v>16</v>
       </c>
@@ -11609,7 +11550,7 @@
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
     </row>
-    <row r="87" spans="1:16">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C87" s="9" t="s">
         <v>27</v>
       </c>
@@ -11631,7 +11572,7 @@
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
     </row>
-    <row r="88" spans="1:16">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="16"/>
       <c r="C88" s="9" t="s">
         <v>16</v>
@@ -11655,7 +11596,7 @@
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
     </row>
-    <row r="89" spans="1:16">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="16"/>
       <c r="B89" s="20"/>
       <c r="C89" s="9" t="s">
@@ -11678,7 +11619,7 @@
       <c r="N89" s="8"/>
       <c r="O89" s="8"/>
     </row>
-    <row r="90" spans="1:16">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="16"/>
       <c r="B90" s="20"/>
       <c r="D90" s="14"/>
@@ -11693,7 +11634,7 @@
       <c r="N90" s="8"/>
       <c r="O90" s="8"/>
     </row>
-    <row r="91" spans="1:16">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G91" s="8"/>
       <c r="H91" s="7"/>
       <c r="I91" s="14"/>
@@ -11704,7 +11645,7 @@
       <c r="N91" s="8"/>
       <c r="O91" s="8"/>
     </row>
-    <row r="92" spans="1:16">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>30</v>
       </c>
@@ -11712,7 +11653,7 @@
       <c r="H92" s="7"/>
       <c r="I92" s="14"/>
     </row>
-    <row r="93" spans="1:16" ht="32">
+    <row r="93" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="8" t="s">
         <v>31</v>
@@ -11730,7 +11671,7 @@
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
     </row>
-    <row r="94" spans="1:16" ht="32">
+    <row r="94" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>33</v>
       </c>
@@ -11747,7 +11688,7 @@
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
     </row>
-    <row r="95" spans="1:16" ht="32">
+    <row r="95" spans="1:16" ht="34" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="8" t="s">
         <v>34</v>
@@ -11765,7 +11706,7 @@
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
     </row>
-    <row r="96" spans="1:16">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B96" s="9" t="s">
         <v>39</v>
       </c>
@@ -11779,7 +11720,7 @@
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
     </row>
-    <row r="97" spans="2:15">
+    <row r="97" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
         <v>35</v>
       </c>
@@ -11793,7 +11734,7 @@
       <c r="N97" s="11"/>
       <c r="O97" s="11"/>
     </row>
-    <row r="98" spans="2:15">
+    <row r="98" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B98" s="8" t="s">
         <v>37</v>
       </c>
@@ -11807,7 +11748,7 @@
       <c r="N98" s="11"/>
       <c r="O98" s="11"/>
     </row>
-    <row r="99" spans="2:15">
+    <row r="99" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B99" s="20" t="s">
         <v>38</v>
       </c>
@@ -11821,7 +11762,7 @@
       <c r="N99" s="11"/>
       <c r="O99" s="11"/>
     </row>
-    <row r="100" spans="2:15">
+    <row r="100" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G100" s="8"/>
       <c r="H100" s="7"/>
       <c r="I100" s="14"/>
@@ -11832,7 +11773,7 @@
       <c r="N100" s="11"/>
       <c r="O100" s="11"/>
     </row>
-    <row r="101" spans="2:15">
+    <row r="101" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>36</v>
       </c>
@@ -11852,7 +11793,7 @@
       <c r="N101" s="11"/>
       <c r="O101" s="11"/>
     </row>
-    <row r="102" spans="2:15">
+    <row r="102" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G102" s="8"/>
       <c r="H102" s="7"/>
       <c r="I102" s="14"/>
@@ -11863,7 +11804,7 @@
       <c r="N102" s="11"/>
       <c r="O102" s="11"/>
     </row>
-    <row r="103" spans="2:15">
+    <row r="103" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
         <v>0</v>
       </c>
@@ -11877,7 +11818,7 @@
       <c r="N103" s="11"/>
       <c r="O103" s="11"/>
     </row>
-    <row r="104" spans="2:15">
+    <row r="104" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>1</v>
       </c>
@@ -11891,7 +11832,7 @@
       <c r="N104" s="11"/>
       <c r="O104" s="11"/>
     </row>
-    <row r="105" spans="2:15">
+    <row r="105" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G105" s="8"/>
       <c r="H105" s="7"/>
       <c r="I105" s="14"/>
@@ -11902,7 +11843,7 @@
       <c r="N105" s="11"/>
       <c r="O105" s="11"/>
     </row>
-    <row r="106" spans="2:15">
+    <row r="106" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B106" s="9" t="s">
         <v>40</v>
       </c>
@@ -11916,7 +11857,7 @@
       <c r="N106" s="11"/>
       <c r="O106" s="11"/>
     </row>
-    <row r="107" spans="2:15">
+    <row r="107" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I107" s="14"/>
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
@@ -11925,7 +11866,7 @@
       <c r="N107" s="11"/>
       <c r="O107" s="11"/>
     </row>
-    <row r="108" spans="2:15">
+    <row r="108" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I108" s="14"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
@@ -11934,20 +11875,20 @@
       <c r="N108" s="11"/>
       <c r="O108" s="11"/>
     </row>
-    <row r="109" spans="2:15">
+    <row r="109" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I109" s="14"/>
     </row>
-    <row r="110" spans="2:15">
+    <row r="110" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B110" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I110" s="14"/>
     </row>
-    <row r="111" spans="2:15">
+    <row r="111" spans="2:15" x14ac:dyDescent="0.25">
       <c r="I111" s="14"/>
       <c r="J111" s="21"/>
     </row>
-    <row r="112" spans="2:15">
+    <row r="112" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B112" s="22" t="s">
         <v>42</v>
       </c>
@@ -11974,7 +11915,7 @@
       </c>
       <c r="O112" s="11"/>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B113" s="22"/>
       <c r="C113" s="22"/>
       <c r="D113" s="29" t="s">
@@ -11991,7 +11932,7 @@
       <c r="I113" s="22"/>
       <c r="O113" s="11"/>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B114" s="22"/>
       <c r="C114" s="22"/>
       <c r="D114" s="22" t="s">
@@ -12008,7 +11949,7 @@
       <c r="I114" s="22"/>
       <c r="O114" s="11"/>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B115" s="22"/>
       <c r="C115" s="22"/>
       <c r="D115" s="22" t="s">
@@ -12027,7 +11968,7 @@
       </c>
       <c r="O115" s="11"/>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="22"/>
       <c r="C116" s="22"/>
@@ -12050,7 +11991,7 @@
       <c r="N116" s="11"/>
       <c r="O116" s="11"/>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
@@ -12075,7 +12016,7 @@
       <c r="N117" s="11"/>
       <c r="O117" s="11"/>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
@@ -12098,7 +12039,7 @@
       <c r="N118" s="11"/>
       <c r="O118" s="11"/>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
@@ -12119,7 +12060,7 @@
       <c r="N119" s="11"/>
       <c r="O119" s="11"/>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
@@ -12142,7 +12083,7 @@
       <c r="N120" s="11"/>
       <c r="O120" s="11"/>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="22"/>
       <c r="C121" s="22"/>
@@ -12165,7 +12106,7 @@
       <c r="N121" s="11"/>
       <c r="O121" s="11"/>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="22"/>
       <c r="C122" s="22"/>
@@ -12188,7 +12129,7 @@
       <c r="N122" s="11"/>
       <c r="O122" s="11"/>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B123" s="22"/>
       <c r="C123" s="22"/>
       <c r="D123" s="22" t="s">
@@ -12200,7 +12141,7 @@
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="22"/>
       <c r="C124" s="22"/>
@@ -12221,7 +12162,7 @@
       <c r="N124" s="11"/>
       <c r="O124" s="11"/>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="22"/>
       <c r="C125" s="22"/>
@@ -12242,7 +12183,7 @@
       <c r="N125" s="11"/>
       <c r="O125" s="11"/>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B126" s="22"/>
       <c r="C126" s="22"/>
       <c r="D126" s="22"/>
@@ -12252,7 +12193,7 @@
       <c r="H126" s="22"/>
       <c r="I126" s="22"/>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
       <c r="D127" s="22"/>
@@ -12262,7 +12203,7 @@
       <c r="H127" s="22"/>
       <c r="I127" s="22"/>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -12279,7 +12220,7 @@
       <c r="N139" s="11"/>
       <c r="O139" s="11"/>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -12296,7 +12237,7 @@
       <c r="N140" s="11"/>
       <c r="O140" s="11"/>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -12313,7 +12254,7 @@
       <c r="N141" s="11"/>
       <c r="O141" s="11"/>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -12330,7 +12271,7 @@
       <c r="N142" s="11"/>
       <c r="O142" s="11"/>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -12347,7 +12288,7 @@
       <c r="N143" s="11"/>
       <c r="O143" s="11"/>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -12364,7 +12305,7 @@
       <c r="N144" s="11"/>
       <c r="O144" s="11"/>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -12381,7 +12322,7 @@
       <c r="N145" s="11"/>
       <c r="O145" s="11"/>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -12398,7 +12339,7 @@
       <c r="N146" s="11"/>
       <c r="O146" s="11"/>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -12415,7 +12356,7 @@
       <c r="N147" s="11"/>
       <c r="O147" s="11"/>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -12432,7 +12373,7 @@
       <c r="N148" s="11"/>
       <c r="O148" s="11"/>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -12449,7 +12390,7 @@
       <c r="N149" s="11"/>
       <c r="O149" s="11"/>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -12466,7 +12407,7 @@
       <c r="N150" s="11"/>
       <c r="O150" s="11"/>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -12483,7 +12424,7 @@
       <c r="N151" s="11"/>
       <c r="O151" s="11"/>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -12500,7 +12441,7 @@
       <c r="N152" s="11"/>
       <c r="O152" s="11"/>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -12517,7 +12458,7 @@
       <c r="N153" s="11"/>
       <c r="O153" s="11"/>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -12534,7 +12475,7 @@
       <c r="N154" s="11"/>
       <c r="O154" s="11"/>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -12551,7 +12492,7 @@
       <c r="N155" s="11"/>
       <c r="O155" s="11"/>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -12568,7 +12509,7 @@
       <c r="N156" s="11"/>
       <c r="O156" s="11"/>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -12585,7 +12526,7 @@
       <c r="N157" s="11"/>
       <c r="O157" s="11"/>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -12602,7 +12543,7 @@
       <c r="N158" s="11"/>
       <c r="O158" s="11"/>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -12619,7 +12560,7 @@
       <c r="N159" s="11"/>
       <c r="O159" s="11"/>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -12636,7 +12577,7 @@
       <c r="N160" s="11"/>
       <c r="O160" s="11"/>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -12653,7 +12594,7 @@
       <c r="N161" s="11"/>
       <c r="O161" s="11"/>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -12670,7 +12611,7 @@
       <c r="N162" s="11"/>
       <c r="O162" s="11"/>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -12687,7 +12628,7 @@
       <c r="N163" s="11"/>
       <c r="O163" s="11"/>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -12704,7 +12645,7 @@
       <c r="N164" s="11"/>
       <c r="O164" s="11"/>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -12721,7 +12662,7 @@
       <c r="N165" s="11"/>
       <c r="O165" s="11"/>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -12738,7 +12679,7 @@
       <c r="N166" s="11"/>
       <c r="O166" s="11"/>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -12755,7 +12696,7 @@
       <c r="N167" s="11"/>
       <c r="O167" s="11"/>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -12772,7 +12713,7 @@
       <c r="N168" s="11"/>
       <c r="O168" s="11"/>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -12789,7 +12730,7 @@
       <c r="N169" s="11"/>
       <c r="O169" s="11"/>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -12806,7 +12747,7 @@
       <c r="N170" s="11"/>
       <c r="O170" s="11"/>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -12823,7 +12764,7 @@
       <c r="N171" s="11"/>
       <c r="O171" s="11"/>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -12840,7 +12781,7 @@
       <c r="N172" s="11"/>
       <c r="O172" s="11"/>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -12857,7 +12798,7 @@
       <c r="N173" s="11"/>
       <c r="O173" s="11"/>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -12874,7 +12815,7 @@
       <c r="N174" s="11"/>
       <c r="O174" s="11"/>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -12891,7 +12832,7 @@
       <c r="N175" s="11"/>
       <c r="O175" s="11"/>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -12908,7 +12849,7 @@
       <c r="N176" s="11"/>
       <c r="O176" s="11"/>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -12925,7 +12866,7 @@
       <c r="N177" s="11"/>
       <c r="O177" s="11"/>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -12942,7 +12883,7 @@
       <c r="N178" s="11"/>
       <c r="O178" s="11"/>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -12959,7 +12900,7 @@
       <c r="N179" s="11"/>
       <c r="O179" s="11"/>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -12976,7 +12917,7 @@
       <c r="N180" s="11"/>
       <c r="O180" s="11"/>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -12993,7 +12934,7 @@
       <c r="N181" s="11"/>
       <c r="O181" s="11"/>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -13010,7 +12951,7 @@
       <c r="N182" s="11"/>
       <c r="O182" s="11"/>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -13027,7 +12968,7 @@
       <c r="N183" s="11"/>
       <c r="O183" s="11"/>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -13044,7 +12985,7 @@
       <c r="N184" s="11"/>
       <c r="O184" s="11"/>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -13061,7 +13002,7 @@
       <c r="N185" s="11"/>
       <c r="O185" s="11"/>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -13078,7 +13019,7 @@
       <c r="N186" s="11"/>
       <c r="O186" s="11"/>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -13095,7 +13036,7 @@
       <c r="N187" s="11"/>
       <c r="O187" s="11"/>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -13112,7 +13053,7 @@
       <c r="N188" s="11"/>
       <c r="O188" s="11"/>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -13129,7 +13070,7 @@
       <c r="N189" s="11"/>
       <c r="O189" s="11"/>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -13146,7 +13087,7 @@
       <c r="N190" s="11"/>
       <c r="O190" s="11"/>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -13163,7 +13104,7 @@
       <c r="N191" s="11"/>
       <c r="O191" s="11"/>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -13183,182 +13124,182 @@
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
   <conditionalFormatting sqref="B101 A98:A105 B98:B99 C98:F105 A106:F112 A1:XFD2 A5:XFD5 I3:XFD3 A3:C4 F4:XFD4 A28:XFD28 C32:C33 I29:XFD32 E58:XFD58 A45:C45 I45:XFD45 D44:H44 G79:XFD80 A82:C82 A79:C80 F79:F82 C86:H86 I86:XFD87 G88:XFD112 A83:XFD85 J113:XFD119 A113:C119 D118:I118 A11:XFD11 F10:XFD10 I59:XFD60 I63:XFD63 A63:B63 E64:XFD64 A75:XFD76 A62:XFD62 F65:XFD66 F71:XFD74 E67:XFD70 A64:C74 F8:XFD8 E9:XFD9 H7:XFD7 H27:XFD27 F27 I26:XFD26 A25 C25 A26:C27 F25:XFD25 F24 E23:F23 F20 E19:F19 F22 F15:F18 H15:XFD24 E17 E21:F21 A7:C10 A87:C88 D61:F61 A58:C61 A18:C24 A17 C17 A43:C43 E47 E43:XFD43 I53:XFD57 G47 F45:F47 F49 A51:C51 A47:C48 E51:XFD51 E48:G48 H61:XFD61 E88:F88 A120:XFD1048576 A16:C16 A15 C15 A13:XFD14 A89:F97 I47:XFD48 A54:B57 C53">
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B103:B105">
-    <cfRule type="cellIs" dxfId="38" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="cellIs" dxfId="37" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:XFD12">
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="40" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:H3">
-    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:G6 J6:XFD6">
-    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:E4">
-    <cfRule type="cellIs" dxfId="33" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:H26">
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:B39 A52:XFD52 A41:B41 G41:XFD41 A49 C49 F42:G42 F31:F33 A40:XFD40 A31:C31 A30 C30 A29:C29 A50:XFD50 I34:XFD39 I33:M33 O33:XFD33 C34:G39 A46:C46 I46:XFD46 A42:C42 I42:XFD42 I49:XFD49 E53:F53 I44:XFD44 A44:C44 A53:B53">
-    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="28" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="28" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D49 D45 D69:D70">
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A77:C78 A81:E81 F77:G77 G78 H77:XFD78 I81:XFD82 G81 A86:B86">
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="25" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D82:E82 G82:H82">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="24" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77:E78 E79:E80">
-    <cfRule type="cellIs" dxfId="23" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="23" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="22" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119:I119 I116 D113:I115 D117:E117 G117:I117">
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D116:G116 F117">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59:H60 G61">
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D63:E63">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63 F63:H63">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D65">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:D74">
-    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E65">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:G7 E8">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22 D27 D24">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"TBD"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13393,90 +13334,22 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <phoneticPr fontId="16" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O150"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" style="9"/>
-    <col min="4" max="4" width="49.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
-    <col min="7" max="15" width="10.1640625" style="9"/>
-    <col min="16" max="16384" width="10.1640625" style="11"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
@@ -13520,7 +13393,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" s="11" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
@@ -13539,7 +13412,173 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <conditionalFormatting sqref="A1:XFD2">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"未完成"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$A$3:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$G$3:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>I1:I2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$I$3:$I$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>F1:F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>附录!$E$3:$E$26</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1:B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" style="9"/>
+    <col min="4" max="4" width="49.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
+    <col min="7" max="15" width="10.1640625" style="9"/>
+    <col min="16" max="16384" width="10.1640625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="9" t="s">
         <v>15</v>
@@ -13560,7 +13599,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="15"/>
       <c r="C4" s="9" t="s">
@@ -13579,7 +13618,7 @@
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="15" t="s">
         <v>19</v>
@@ -13600,7 +13639,7 @@
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="15"/>
       <c r="C6" s="9" t="s">
@@ -13619,7 +13658,7 @@
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="15"/>
       <c r="C7" s="9" t="s">
@@ -13638,7 +13677,7 @@
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="15" t="s">
         <v>61</v>
@@ -13659,7 +13698,7 @@
       <c r="N8" s="8"/>
       <c r="O8" s="8"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="15"/>
       <c r="C9" s="9" t="s">
@@ -13678,7 +13717,7 @@
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="15"/>
       <c r="C10" s="9" t="s">
@@ -13697,7 +13736,7 @@
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="15" t="s">
         <v>21</v>
@@ -13718,7 +13757,7 @@
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="15"/>
       <c r="C12" s="9" t="s">
@@ -13737,7 +13776,7 @@
       <c r="N12" s="8"/>
       <c r="O12" s="8"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="15"/>
       <c r="C13" s="9" t="s">
@@ -13756,7 +13795,7 @@
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="15"/>
       <c r="C14" s="10" t="s">
@@ -13775,7 +13814,7 @@
       <c r="N14" s="8"/>
       <c r="O14" s="8"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="15"/>
       <c r="C15" s="10" t="s">
@@ -13794,7 +13833,7 @@
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="C16" s="10"/>
       <c r="D16" s="14"/>
@@ -13810,7 +13849,7 @@
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
@@ -13826,7 +13865,7 @@
       <c r="N17" s="8"/>
       <c r="O17" s="8"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>64</v>
       </c>
@@ -13844,7 +13883,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
       <c r="C19" s="17" t="s">
         <v>16</v>
@@ -13860,7 +13899,7 @@
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
       <c r="C20" s="17" t="s">
         <v>16</v>
@@ -13876,7 +13915,7 @@
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
       <c r="C21" s="17" t="s">
         <v>16</v>
@@ -13892,7 +13931,7 @@
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>24</v>
       </c>
@@ -13910,7 +13949,7 @@
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
       <c r="C23" s="17" t="s">
         <v>20</v>
@@ -13926,7 +13965,7 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="6"/>
       <c r="C24" s="17" t="s">
@@ -13943,7 +13982,7 @@
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="18" t="s">
         <v>25</v>
@@ -13962,7 +14001,7 @@
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="C26" s="17" t="s">
         <v>16</v>
@@ -13978,7 +14017,7 @@
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="C27" s="17" t="s">
         <v>16</v>
@@ -13994,7 +14033,7 @@
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="C28" s="17" t="s">
         <v>16</v>
@@ -14010,7 +14049,7 @@
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="C29" s="17"/>
       <c r="D29" s="14"/>
@@ -14024,7 +14063,7 @@
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>26</v>
       </c>
@@ -14040,7 +14079,7 @@
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>53</v>
       </c>
@@ -14060,7 +14099,7 @@
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="C32" s="10" t="s">
         <v>16</v>
@@ -14078,7 +14117,7 @@
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="9" t="s">
         <v>51</v>
@@ -14099,7 +14138,7 @@
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="C34" s="10" t="s">
         <v>16</v>
@@ -14117,7 +14156,7 @@
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="9" t="s">
         <v>52</v>
@@ -14138,7 +14177,7 @@
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="C36" s="10" t="s">
         <v>16</v>
@@ -14156,7 +14195,7 @@
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="9" t="s">
         <v>21</v>
@@ -14177,7 +14216,7 @@
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="C38" s="10" t="s">
         <v>16</v>
@@ -14195,7 +14234,7 @@
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="C39" s="10" t="s">
         <v>20</v>
@@ -14212,7 +14251,7 @@
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="16"/>
       <c r="C40" s="10" t="s">
         <v>27</v>
@@ -14230,7 +14269,7 @@
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C41" s="10"/>
       <c r="D41" s="14"/>
       <c r="E41" s="19"/>
@@ -14244,7 +14283,7 @@
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>28</v>
       </c>
@@ -14261,7 +14300,7 @@
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="20" t="s">
         <v>77</v>
@@ -14280,7 +14319,7 @@
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="16"/>
       <c r="C44" s="9" t="s">
         <v>16</v>
@@ -14297,7 +14336,7 @@
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
       <c r="B45" s="20" t="s">
         <v>78</v>
@@ -14317,7 +14356,7 @@
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="16"/>
       <c r="B46" s="20" t="s">
         <v>21</v>
@@ -14337,7 +14376,7 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G47" s="8"/>
       <c r="H47" s="7"/>
       <c r="I47" s="14"/>
@@ -14348,7 +14387,7 @@
       <c r="N47" s="8"/>
       <c r="O47" s="8"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>30</v>
       </c>
@@ -14356,7 +14395,7 @@
       <c r="H48" s="7"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" spans="1:9" s="11" customFormat="1" ht="32">
+    <row r="49" spans="1:9" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="8" t="s">
         <v>31</v>
@@ -14371,7 +14410,7 @@
       <c r="H49" s="7"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" spans="1:9" s="11" customFormat="1" ht="32">
+    <row r="50" spans="1:9" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="8" t="s">
         <v>33</v>
@@ -14386,7 +14425,7 @@
       <c r="H50" s="7"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" spans="1:9" s="11" customFormat="1" ht="32">
+    <row r="51" spans="1:9" s="11" customFormat="1" ht="34" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="8" t="s">
         <v>34</v>
@@ -14401,7 +14440,7 @@
       <c r="H51" s="7"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" spans="1:9" s="11" customFormat="1">
+    <row r="52" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9"/>
       <c r="B52" s="9" t="s">
         <v>39</v>
@@ -14414,7 +14453,7 @@
       <c r="H52" s="7"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" spans="1:9" s="11" customFormat="1">
+    <row r="53" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="8" t="s">
         <v>35</v>
@@ -14427,7 +14466,7 @@
       <c r="H53" s="7"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" spans="1:9" s="11" customFormat="1">
+    <row r="54" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9"/>
       <c r="B54" s="8" t="s">
         <v>37</v>
@@ -14440,7 +14479,7 @@
       <c r="H54" s="7"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" spans="1:9" s="11" customFormat="1">
+    <row r="55" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="9"/>
       <c r="B55" s="20" t="s">
         <v>38</v>
@@ -14453,7 +14492,7 @@
       <c r="H55" s="7"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" spans="1:9" s="11" customFormat="1">
+    <row r="56" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -14464,7 +14503,7 @@
       <c r="H56" s="7"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" spans="1:9" s="11" customFormat="1">
+    <row r="57" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="8" t="s">
         <v>36</v>
@@ -14477,7 +14516,7 @@
       <c r="H57" s="7"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" spans="1:9" s="11" customFormat="1">
+    <row r="58" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -14488,7 +14527,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" spans="1:9" s="11" customFormat="1">
+    <row r="59" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
       <c r="B59" s="9" t="s">
         <v>0</v>
@@ -14501,7 +14540,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" spans="1:9" s="11" customFormat="1">
+    <row r="60" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9"/>
       <c r="B60" s="9" t="s">
         <v>1</v>
@@ -14514,7 +14553,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" spans="1:9" s="11" customFormat="1">
+    <row r="61" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -14525,7 +14564,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" spans="1:9" s="11" customFormat="1">
+    <row r="62" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9"/>
       <c r="B62" s="9" t="s">
         <v>40</v>
@@ -14538,7 +14577,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" spans="1:9" s="11" customFormat="1">
+    <row r="63" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -14549,7 +14588,7 @@
       <c r="H63" s="9"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" spans="1:9" s="11" customFormat="1">
+    <row r="64" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -14560,20 +14599,20 @@
       <c r="H64" s="9"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I65" s="14"/>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" s="9" t="s">
         <v>41</v>
       </c>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="I67" s="14"/>
       <c r="J67" s="21"/>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B68" s="22" t="s">
         <v>42</v>
       </c>
@@ -14600,7 +14639,7 @@
       </c>
       <c r="O68" s="11"/>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B69" s="22"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
@@ -14611,7 +14650,7 @@
       <c r="I69" s="22"/>
       <c r="O69" s="11"/>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" s="22"/>
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
@@ -14622,7 +14661,7 @@
       <c r="I70" s="22"/>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" s="22"/>
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
@@ -14633,7 +14672,7 @@
       <c r="I71" s="22"/>
       <c r="O71" s="11"/>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="22"/>
       <c r="C72" s="22"/>
@@ -14650,7 +14689,7 @@
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="22"/>
       <c r="C73" s="22"/>
@@ -14667,7 +14706,7 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="22"/>
       <c r="C74" s="22"/>
@@ -14684,7 +14723,7 @@
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="22"/>
       <c r="C75" s="22"/>
@@ -14701,7 +14740,7 @@
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="22"/>
       <c r="C76" s="22"/>
@@ -14718,7 +14757,7 @@
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="22"/>
       <c r="C77" s="22"/>
@@ -14735,7 +14774,7 @@
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="22"/>
       <c r="C78" s="22"/>
@@ -14752,7 +14791,7 @@
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="22"/>
       <c r="C79" s="22"/>
@@ -14769,7 +14808,7 @@
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="22"/>
       <c r="C80" s="22"/>
@@ -14786,7 +14825,7 @@
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -14803,7 +14842,7 @@
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -14820,74 +14859,74 @@
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
     </row>
-    <row r="97" s="11" customFormat="1"/>
-    <row r="98" s="11" customFormat="1"/>
-    <row r="99" s="11" customFormat="1"/>
-    <row r="100" s="11" customFormat="1"/>
-    <row r="101" s="11" customFormat="1"/>
-    <row r="102" s="11" customFormat="1"/>
-    <row r="103" s="11" customFormat="1"/>
-    <row r="104" s="11" customFormat="1"/>
-    <row r="105" s="11" customFormat="1"/>
-    <row r="106" s="11" customFormat="1"/>
-    <row r="107" s="11" customFormat="1"/>
-    <row r="108" s="11" customFormat="1"/>
-    <row r="109" s="11" customFormat="1"/>
-    <row r="110" s="11" customFormat="1"/>
-    <row r="111" s="11" customFormat="1"/>
-    <row r="112" s="11" customFormat="1"/>
-    <row r="113" s="11" customFormat="1"/>
-    <row r="114" s="11" customFormat="1"/>
-    <row r="115" s="11" customFormat="1"/>
-    <row r="116" s="11" customFormat="1"/>
-    <row r="117" s="11" customFormat="1"/>
-    <row r="118" s="11" customFormat="1"/>
-    <row r="119" s="11" customFormat="1"/>
-    <row r="120" s="11" customFormat="1"/>
-    <row r="121" s="11" customFormat="1"/>
-    <row r="122" s="11" customFormat="1"/>
-    <row r="123" s="11" customFormat="1"/>
-    <row r="124" s="11" customFormat="1"/>
-    <row r="125" s="11" customFormat="1"/>
-    <row r="126" s="11" customFormat="1"/>
-    <row r="127" s="11" customFormat="1"/>
-    <row r="128" s="11" customFormat="1"/>
-    <row r="129" s="11" customFormat="1"/>
-    <row r="130" s="11" customFormat="1"/>
-    <row r="131" s="11" customFormat="1"/>
-    <row r="132" s="11" customFormat="1"/>
-    <row r="133" s="11" customFormat="1"/>
-    <row r="134" s="11" customFormat="1"/>
-    <row r="135" s="11" customFormat="1"/>
-    <row r="136" s="11" customFormat="1"/>
-    <row r="137" s="11" customFormat="1"/>
-    <row r="138" s="11" customFormat="1"/>
-    <row r="139" s="11" customFormat="1"/>
-    <row r="140" s="11" customFormat="1"/>
-    <row r="141" s="11" customFormat="1"/>
-    <row r="142" s="11" customFormat="1"/>
-    <row r="143" s="11" customFormat="1"/>
-    <row r="144" s="11" customFormat="1"/>
-    <row r="145" s="11" customFormat="1"/>
-    <row r="146" s="11" customFormat="1"/>
-    <row r="147" s="11" customFormat="1"/>
-    <row r="148" s="11" customFormat="1"/>
-    <row r="149" s="11" customFormat="1"/>
-    <row r="150" s="11" customFormat="1"/>
+    <row r="97" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="11" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="B57 A54:A61 B54:B55 C54:F61 A62:F1048576 A43:F53 A29 C29 A1:F27 G1:XFD1048576 A28:C28 A30:C42 E28:F42">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:B61">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D42">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14921,9 +14960,6 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -14936,12 +14972,12 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="16">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>54</v>
       </c>
@@ -14957,7 +14993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -14975,7 +15011,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16">
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>20</v>
       </c>
@@ -14993,7 +15029,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -15011,7 +15047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -15022,7 +15058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="E7" s="12" t="s">
@@ -15032,7 +15068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4" t="s">
@@ -15042,7 +15078,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="E9" s="4" t="s">
@@ -15052,7 +15088,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="E10" s="4" t="s">
@@ -15062,7 +15098,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="E11" s="4" t="s">
@@ -15072,7 +15108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="E12" s="4" t="s">
@@ -15082,7 +15118,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -15092,7 +15128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="E14" s="4" t="s">
@@ -15102,7 +15138,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="E15" s="4" t="s">
@@ -15112,7 +15148,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="E16" s="4" t="s">
@@ -15122,7 +15158,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="E17" s="4" t="s">
@@ -15132,7 +15168,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
@@ -15140,7 +15176,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
@@ -15148,7 +15184,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="E20" s="4" t="s">
@@ -15156,7 +15192,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="E21" s="4" t="s">
@@ -15164,7 +15200,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="E22" s="4" t="s">
@@ -15172,7 +15208,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="E23" s="4" t="s">
@@ -15180,7 +15216,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="E24" s="4" t="s">
@@ -15188,7 +15224,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="E25" s="4" t="s">
@@ -15196,7 +15232,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="E26" s="4" t="s">
@@ -15206,15 +15242,10 @@
   </sheetData>
   <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="A2:C6 B7:C26 G2:G5 I1:I25 E2:E26">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>